--- a/data_excel/615.xlsx
+++ b/data_excel/615.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,12 +155,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -459,7 +482,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,7 +648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -636,14 +659,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/data_excel/615.xlsx
+++ b/data_excel/615.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>小安</t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,12 +486,12 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,12 +511,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -706,5 +710,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_excel/615.xlsx
+++ b/data_excel/615.xlsx
@@ -69,9 +69,6 @@
     <t>adv</t>
   </si>
   <si>
-    <t>特點</t>
-  </si>
-  <si>
     <t>個</t>
   </si>
   <si>
@@ -113,6 +110,10 @@
   </si>
   <si>
     <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,13 +175,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -486,7 +503,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -516,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -551,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -571,24 +588,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -602,54 +619,54 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -671,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,24 +704,24 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/615.xlsx
+++ b/data_excel/615.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>小安</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>吃</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>=</t>
@@ -114,6 +111,14 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +508,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -541,11 +546,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,114 +564,114 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -684,44 +689,44 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
